--- a/CartApproval.xlsx
+++ b/CartApproval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC4A6E-B2B4-4233-8786-64C4EBA2F98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949DB8D1-3353-40AE-9B3D-C8AEA8B6F744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
